--- a/scripts/CV_XRD/test_ctr.xlsx
+++ b/scripts/CV_XRD/test_ctr.xlsx
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3496,6 +3496,6024 @@
         <v>1</v>
       </c>
     </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>133</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>-1.708828125</v>
+      </c>
+      <c r="E53">
+        <v>-0.502109375</v>
+      </c>
+      <c r="F53">
+        <v>0.00555736918766667</v>
+      </c>
+      <c r="G53">
+        <v>0.0001655636161055189</v>
+      </c>
+      <c r="H53">
+        <v>-2.000000929031273</v>
+      </c>
+      <c r="I53">
+        <v>-1.072904685783806e-07</v>
+      </c>
+      <c r="J53">
+        <v>0.09999958981107998</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-77.78616874999999</v>
+      </c>
+      <c r="N53">
+        <v>0.7875249999999987</v>
+      </c>
+      <c r="O53">
+        <v>17.570175</v>
+      </c>
+      <c r="P53">
+        <v>0.34</v>
+      </c>
+      <c r="Q53">
+        <v>202740</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>133</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>-1.710859375</v>
+      </c>
+      <c r="E54">
+        <v>-0.489375</v>
+      </c>
+      <c r="F54">
+        <v>0.006920454048605294</v>
+      </c>
+      <c r="G54">
+        <v>0.0001850680372430154</v>
+      </c>
+      <c r="H54">
+        <v>-1.999998267783491</v>
+      </c>
+      <c r="I54">
+        <v>-1.741093093442572e-07</v>
+      </c>
+      <c r="J54">
+        <v>0.1679997256006641</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-77.81741249999999</v>
+      </c>
+      <c r="N54">
+        <v>1.382449999999999</v>
+      </c>
+      <c r="O54">
+        <v>17.5749</v>
+      </c>
+      <c r="P54">
+        <v>0.34</v>
+      </c>
+      <c r="Q54">
+        <v>202056</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>133</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>-1.706953125</v>
+      </c>
+      <c r="E55">
+        <v>-0.48375</v>
+      </c>
+      <c r="F55">
+        <v>0.07728054947993562</v>
+      </c>
+      <c r="G55">
+        <v>0.0006152910800561002</v>
+      </c>
+      <c r="H55">
+        <v>-1.999992033843663</v>
+      </c>
+      <c r="I55">
+        <v>-1.325162277741518e-07</v>
+      </c>
+      <c r="J55">
+        <v>0.2360002691902176</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-77.82819375</v>
+      </c>
+      <c r="N55">
+        <v>1.9773125</v>
+      </c>
+      <c r="O55">
+        <v>17.580575</v>
+      </c>
+      <c r="P55">
+        <v>0.34</v>
+      </c>
+      <c r="Q55">
+        <v>204131</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>133</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>-1.70375</v>
+      </c>
+      <c r="E56">
+        <v>-0.49375</v>
+      </c>
+      <c r="F56">
+        <v>0.2057900615148772</v>
+      </c>
+      <c r="G56">
+        <v>0.00100548248902686</v>
+      </c>
+      <c r="H56">
+        <v>-1.999999956193229</v>
+      </c>
+      <c r="I56">
+        <v>-5.548006196263463e-08</v>
+      </c>
+      <c r="J56">
+        <v>0.304001764259032</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-77.81845625</v>
+      </c>
+      <c r="N56">
+        <v>2.572174999999998</v>
+      </c>
+      <c r="O56">
+        <v>17.5873125</v>
+      </c>
+      <c r="P56">
+        <v>0.34</v>
+      </c>
+      <c r="Q56">
+        <v>203552</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>133</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>-1.70453125</v>
+      </c>
+      <c r="E57">
+        <v>-0.481875</v>
+      </c>
+      <c r="F57">
+        <v>0.1100592245501547</v>
+      </c>
+      <c r="G57">
+        <v>0.0007343883354790848</v>
+      </c>
+      <c r="H57">
+        <v>-2.000001518306436</v>
+      </c>
+      <c r="I57">
+        <v>1.063747483324328e-07</v>
+      </c>
+      <c r="J57">
+        <v>0.3720005537079739</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-77.788275</v>
+      </c>
+      <c r="N57">
+        <v>3.167087500000001</v>
+      </c>
+      <c r="O57">
+        <v>17.5949625</v>
+      </c>
+      <c r="P57">
+        <v>0.34</v>
+      </c>
+      <c r="Q57">
+        <v>204068</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>133</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>-1.705390625</v>
+      </c>
+      <c r="E58">
+        <v>-0.505234375</v>
+      </c>
+      <c r="F58">
+        <v>0.0668988228166756</v>
+      </c>
+      <c r="G58">
+        <v>0.0005731497363400019</v>
+      </c>
+      <c r="H58">
+        <v>-1.9999974612279</v>
+      </c>
+      <c r="I58">
+        <v>3.515910373686052e-08</v>
+      </c>
+      <c r="J58">
+        <v>0.440000500410296</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-77.73759374999999</v>
+      </c>
+      <c r="N58">
+        <v>3.762125000000001</v>
+      </c>
+      <c r="O58">
+        <v>17.6036</v>
+      </c>
+      <c r="P58">
+        <v>0.34</v>
+      </c>
+      <c r="Q58">
+        <v>203649</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>133</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>-1.700390625</v>
+      </c>
+      <c r="E59">
+        <v>-0.535546875</v>
+      </c>
+      <c r="F59">
+        <v>0.04663347200880651</v>
+      </c>
+      <c r="G59">
+        <v>0.000478176342134474</v>
+      </c>
+      <c r="H59">
+        <v>-2.00000106580812</v>
+      </c>
+      <c r="I59">
+        <v>4.315081481189908e-08</v>
+      </c>
+      <c r="J59">
+        <v>0.5079986337061774</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-77.66643124999999</v>
+      </c>
+      <c r="N59">
+        <v>4.35735</v>
+      </c>
+      <c r="O59">
+        <v>17.613175</v>
+      </c>
+      <c r="P59">
+        <v>0.34</v>
+      </c>
+      <c r="Q59">
+        <v>203949</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>133</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>-1.709375</v>
+      </c>
+      <c r="E60">
+        <v>-0.528125</v>
+      </c>
+      <c r="F60">
+        <v>0.03051444256532279</v>
+      </c>
+      <c r="G60">
+        <v>0.0003868911903448222</v>
+      </c>
+      <c r="H60">
+        <v>-2.000001795979069</v>
+      </c>
+      <c r="I60">
+        <v>-5.827692744863655e-08</v>
+      </c>
+      <c r="J60">
+        <v>0.5759995609883425</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-77.57476874999999</v>
+      </c>
+      <c r="N60">
+        <v>4.952849999999998</v>
+      </c>
+      <c r="O60">
+        <v>17.6236625</v>
+      </c>
+      <c r="P60">
+        <v>0.34</v>
+      </c>
+      <c r="Q60">
+        <v>203858</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>133</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>-1.71015625</v>
+      </c>
+      <c r="E61">
+        <v>-0.539296875</v>
+      </c>
+      <c r="F61">
+        <v>0.02899933906350204</v>
+      </c>
+      <c r="G61">
+        <v>0.0003772287168499897</v>
+      </c>
+      <c r="H61">
+        <v>-2.000006466395467</v>
+      </c>
+      <c r="I61">
+        <v>8.732177817715672e-08</v>
+      </c>
+      <c r="J61">
+        <v>0.6439989982841056</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-77.462575</v>
+      </c>
+      <c r="N61">
+        <v>5.548649999999999</v>
+      </c>
+      <c r="O61">
+        <v>17.6351</v>
+      </c>
+      <c r="P61">
+        <v>0.34</v>
+      </c>
+      <c r="Q61">
+        <v>203788</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>133</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>-1.7084375</v>
+      </c>
+      <c r="E62">
+        <v>-0.529375</v>
+      </c>
+      <c r="F62">
+        <v>0.02363750313032766</v>
+      </c>
+      <c r="G62">
+        <v>0.000340304423563396</v>
+      </c>
+      <c r="H62">
+        <v>-2.000001936318244</v>
+      </c>
+      <c r="I62">
+        <v>7.769317129432394e-08</v>
+      </c>
+      <c r="J62">
+        <v>0.7120018326377892</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-77.32983125</v>
+      </c>
+      <c r="N62">
+        <v>6.144862499999999</v>
+      </c>
+      <c r="O62">
+        <v>17.6474125</v>
+      </c>
+      <c r="P62">
+        <v>0.34</v>
+      </c>
+      <c r="Q62">
+        <v>204111</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>133</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>-1.707421875</v>
+      </c>
+      <c r="E63">
+        <v>-0.526640625</v>
+      </c>
+      <c r="F63">
+        <v>0.01694280413613887</v>
+      </c>
+      <c r="G63">
+        <v>0.0002882442178816697</v>
+      </c>
+      <c r="H63">
+        <v>-2.00000174496861</v>
+      </c>
+      <c r="I63">
+        <v>-4.423972398204532e-09</v>
+      </c>
+      <c r="J63">
+        <v>0.7800017140289701</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-77.17655624999999</v>
+      </c>
+      <c r="N63">
+        <v>6.741499999999998</v>
+      </c>
+      <c r="O63">
+        <v>17.6605</v>
+      </c>
+      <c r="P63">
+        <v>0.34</v>
+      </c>
+      <c r="Q63">
+        <v>203922</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>133</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>-1.7109375</v>
+      </c>
+      <c r="E64">
+        <v>-0.51046875</v>
+      </c>
+      <c r="F64">
+        <v>0.0165159088065031</v>
+      </c>
+      <c r="G64">
+        <v>0.000284493466400025</v>
+      </c>
+      <c r="H64">
+        <v>-1.999997529080357</v>
+      </c>
+      <c r="I64">
+        <v>7.836449177695887e-08</v>
+      </c>
+      <c r="J64">
+        <v>0.8479991716759905</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-77.00268124999999</v>
+      </c>
+      <c r="N64">
+        <v>7.338662499999998</v>
+      </c>
+      <c r="O64">
+        <v>17.6744</v>
+      </c>
+      <c r="P64">
+        <v>0.34</v>
+      </c>
+      <c r="Q64">
+        <v>204060</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>133</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>-1.700703125</v>
+      </c>
+      <c r="E65">
+        <v>-0.506796875</v>
+      </c>
+      <c r="F65">
+        <v>0.01717710922272606</v>
+      </c>
+      <c r="G65">
+        <v>0.0002901408422419905</v>
+      </c>
+      <c r="H65">
+        <v>-2.000000755401522</v>
+      </c>
+      <c r="I65">
+        <v>9.400130153384583e-08</v>
+      </c>
+      <c r="J65">
+        <v>0.916002131629839</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>-76.80815</v>
+      </c>
+      <c r="N65">
+        <v>7.936412499999999</v>
+      </c>
+      <c r="O65">
+        <v>17.6891</v>
+      </c>
+      <c r="P65">
+        <v>0.34</v>
+      </c>
+      <c r="Q65">
+        <v>204048</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>133</v>
+      </c>
+      <c r="C66">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>-1.715703125</v>
+      </c>
+      <c r="E66">
+        <v>-0.501953125</v>
+      </c>
+      <c r="F66">
+        <v>0.01391390927681008</v>
+      </c>
+      <c r="G66">
+        <v>0.0002610126916392399</v>
+      </c>
+      <c r="H66">
+        <v>-2.0000115481606</v>
+      </c>
+      <c r="I66">
+        <v>-4.134742033314526e-08</v>
+      </c>
+      <c r="J66">
+        <v>0.9840008889833863</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-76.5929125</v>
+      </c>
+      <c r="N66">
+        <v>8.534837499999998</v>
+      </c>
+      <c r="O66">
+        <v>17.70455</v>
+      </c>
+      <c r="P66">
+        <v>0.34</v>
+      </c>
+      <c r="Q66">
+        <v>204233</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>133</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>-1.707578125</v>
+      </c>
+      <c r="E67">
+        <v>-0.50828125</v>
+      </c>
+      <c r="F67">
+        <v>0.01619001845105495</v>
+      </c>
+      <c r="G67">
+        <v>0.0002816264529979868</v>
+      </c>
+      <c r="H67">
+        <v>-2.000008536558897</v>
+      </c>
+      <c r="I67">
+        <v>-6.84908682184528e-08</v>
+      </c>
+      <c r="J67">
+        <v>1.052001257858949</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-76.35700625</v>
+      </c>
+      <c r="N67">
+        <v>9.133925</v>
+      </c>
+      <c r="O67">
+        <v>17.7205875</v>
+      </c>
+      <c r="P67">
+        <v>0.34</v>
+      </c>
+      <c r="Q67">
+        <v>204127</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>133</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>-1.70421875</v>
+      </c>
+      <c r="E68">
+        <v>-0.4984375</v>
+      </c>
+      <c r="F68">
+        <v>0.01720684982301636</v>
+      </c>
+      <c r="G68">
+        <v>0.0002905001300738458</v>
+      </c>
+      <c r="H68">
+        <v>-2.000010720940093</v>
+      </c>
+      <c r="I68">
+        <v>1.306417545515239e-07</v>
+      </c>
+      <c r="J68">
+        <v>1.119999916647088</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-76.10034999999999</v>
+      </c>
+      <c r="N68">
+        <v>9.7338375</v>
+      </c>
+      <c r="O68">
+        <v>17.7371375</v>
+      </c>
+      <c r="P68">
+        <v>0.34</v>
+      </c>
+      <c r="Q68">
+        <v>203896</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>133</v>
+      </c>
+      <c r="C69">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>-1.702734375</v>
+      </c>
+      <c r="E69">
+        <v>-0.4978125</v>
+      </c>
+      <c r="F69">
+        <v>0.01531591784955836</v>
+      </c>
+      <c r="G69">
+        <v>0.0002736919511596907</v>
+      </c>
+      <c r="H69">
+        <v>-2.000016362727089</v>
+      </c>
+      <c r="I69">
+        <v>2.706281214468018e-07</v>
+      </c>
+      <c r="J69">
+        <v>1.188003037565458</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-75.8228</v>
+      </c>
+      <c r="N69">
+        <v>10.33465</v>
+      </c>
+      <c r="O69">
+        <v>17.7543</v>
+      </c>
+      <c r="P69">
+        <v>0.34</v>
+      </c>
+      <c r="Q69">
+        <v>204465</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>133</v>
+      </c>
+      <c r="C70">
+        <v>17</v>
+      </c>
+      <c r="D70">
+        <v>-1.70578125</v>
+      </c>
+      <c r="E70">
+        <v>-0.5014062500000001</v>
+      </c>
+      <c r="F70">
+        <v>0.01895707885618888</v>
+      </c>
+      <c r="G70">
+        <v>0.0003044088717833552</v>
+      </c>
+      <c r="H70">
+        <v>-2.000012828941764</v>
+      </c>
+      <c r="I70">
+        <v>1.023369057883619e-07</v>
+      </c>
+      <c r="J70">
+        <v>1.255999952492425</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-75.52443749999999</v>
+      </c>
+      <c r="N70">
+        <v>10.936325</v>
+      </c>
+      <c r="O70">
+        <v>17.7717375</v>
+      </c>
+      <c r="P70">
+        <v>0.34</v>
+      </c>
+      <c r="Q70">
+        <v>204577</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>133</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>-1.709140625</v>
+      </c>
+      <c r="E71">
+        <v>-0.4915625</v>
+      </c>
+      <c r="F71">
+        <v>0.01952214707171069</v>
+      </c>
+      <c r="G71">
+        <v>0.0003091172417827576</v>
+      </c>
+      <c r="H71">
+        <v>-2.000011861823573</v>
+      </c>
+      <c r="I71">
+        <v>-2.631474984652109e-08</v>
+      </c>
+      <c r="J71">
+        <v>1.3240041793982</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-75.20508749999999</v>
+      </c>
+      <c r="N71">
+        <v>11.53905</v>
+      </c>
+      <c r="O71">
+        <v>17.7895</v>
+      </c>
+      <c r="P71">
+        <v>0.34</v>
+      </c>
+      <c r="Q71">
+        <v>204306</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>133</v>
+      </c>
+      <c r="C72">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>-1.707421875</v>
+      </c>
+      <c r="E72">
+        <v>-0.49171875</v>
+      </c>
+      <c r="F72">
+        <v>0.02532699291844488</v>
+      </c>
+      <c r="G72">
+        <v>0.0003520535629810917</v>
+      </c>
+      <c r="H72">
+        <v>-2.000015605733946</v>
+      </c>
+      <c r="I72">
+        <v>5.106569127863604e-08</v>
+      </c>
+      <c r="J72">
+        <v>1.39199837621672</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>-74.86471874999999</v>
+      </c>
+      <c r="N72">
+        <v>12.1428125</v>
+      </c>
+      <c r="O72">
+        <v>17.8074875</v>
+      </c>
+      <c r="P72">
+        <v>0.34</v>
+      </c>
+      <c r="Q72">
+        <v>204346</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>133</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>-1.704296875</v>
+      </c>
+      <c r="E73">
+        <v>-0.475859375</v>
+      </c>
+      <c r="F73">
+        <v>0.03058061404356556</v>
+      </c>
+      <c r="G73">
+        <v>0.0003866471972245581</v>
+      </c>
+      <c r="H73">
+        <v>-2.000022924758925</v>
+      </c>
+      <c r="I73">
+        <v>1.90384653783388e-08</v>
+      </c>
+      <c r="J73">
+        <v>1.460001752047998</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>-74.50316875</v>
+      </c>
+      <c r="N73">
+        <v>12.747775</v>
+      </c>
+      <c r="O73">
+        <v>17.8256375</v>
+      </c>
+      <c r="P73">
+        <v>0.34</v>
+      </c>
+      <c r="Q73">
+        <v>204558</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>133</v>
+      </c>
+      <c r="C74">
+        <v>21</v>
+      </c>
+      <c r="D74">
+        <v>-1.7071875</v>
+      </c>
+      <c r="E74">
+        <v>-0.47921875</v>
+      </c>
+      <c r="F74">
+        <v>0.04174180218646952</v>
+      </c>
+      <c r="G74">
+        <v>0.0004557792612933151</v>
+      </c>
+      <c r="H74">
+        <v>-2.000025542841435</v>
+      </c>
+      <c r="I74">
+        <v>5.639759211364336e-08</v>
+      </c>
+      <c r="J74">
+        <v>1.527997914106727</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-74.12041875</v>
+      </c>
+      <c r="N74">
+        <v>13.353925</v>
+      </c>
+      <c r="O74">
+        <v>17.8437625</v>
+      </c>
+      <c r="P74">
+        <v>0.34</v>
+      </c>
+      <c r="Q74">
+        <v>200938</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>133</v>
+      </c>
+      <c r="C75">
+        <v>22</v>
+      </c>
+      <c r="D75">
+        <v>-1.70734375</v>
+      </c>
+      <c r="E75">
+        <v>-0.5278906250000001</v>
+      </c>
+      <c r="F75">
+        <v>0.0619233280971014</v>
+      </c>
+      <c r="G75">
+        <v>0.0005500943532512698</v>
+      </c>
+      <c r="H75">
+        <v>-2.000022277503617</v>
+      </c>
+      <c r="I75">
+        <v>-1.750895669496619e-07</v>
+      </c>
+      <c r="J75">
+        <v>1.59599767269345</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-73.71633749999999</v>
+      </c>
+      <c r="N75">
+        <v>13.961375</v>
+      </c>
+      <c r="O75">
+        <v>17.8617</v>
+      </c>
+      <c r="P75">
+        <v>0.34</v>
+      </c>
+      <c r="Q75">
+        <v>204635</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>133</v>
+      </c>
+      <c r="C76">
+        <v>23</v>
+      </c>
+      <c r="D76">
+        <v>-1.7084375</v>
+      </c>
+      <c r="E76">
+        <v>-0.516796875</v>
+      </c>
+      <c r="F76">
+        <v>0.09192260244399063</v>
+      </c>
+      <c r="G76">
+        <v>0.0006712945228429079</v>
+      </c>
+      <c r="H76">
+        <v>-2.000021328785551</v>
+      </c>
+      <c r="I76">
+        <v>1.020600900817316e-07</v>
+      </c>
+      <c r="J76">
+        <v>1.664002391679825</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>-73.29075625</v>
+      </c>
+      <c r="N76">
+        <v>14.57025</v>
+      </c>
+      <c r="O76">
+        <v>17.8794375</v>
+      </c>
+      <c r="P76">
+        <v>0.34</v>
+      </c>
+      <c r="Q76">
+        <v>203984</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>133</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+      <c r="D77">
+        <v>-1.706953125</v>
+      </c>
+      <c r="E77">
+        <v>-0.5134375</v>
+      </c>
+      <c r="F77">
+        <v>0.1626440978966621</v>
+      </c>
+      <c r="G77">
+        <v>0.0008931412051832249</v>
+      </c>
+      <c r="H77">
+        <v>-2.000023463830135</v>
+      </c>
+      <c r="I77">
+        <v>1.139278583510076e-07</v>
+      </c>
+      <c r="J77">
+        <v>1.731996959001703</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>-72.84363125</v>
+      </c>
+      <c r="N77">
+        <v>15.180525</v>
+      </c>
+      <c r="O77">
+        <v>17.896675</v>
+      </c>
+      <c r="P77">
+        <v>0.34</v>
+      </c>
+      <c r="Q77">
+        <v>203891</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>133</v>
+      </c>
+      <c r="C78">
+        <v>25</v>
+      </c>
+      <c r="D78">
+        <v>-1.7115625</v>
+      </c>
+      <c r="E78">
+        <v>-0.50671875</v>
+      </c>
+      <c r="F78">
+        <v>0.3420417594575175</v>
+      </c>
+      <c r="G78">
+        <v>0.001293869581062147</v>
+      </c>
+      <c r="H78">
+        <v>-2.000025143785589</v>
+      </c>
+      <c r="I78">
+        <v>1.275919605284898e-07</v>
+      </c>
+      <c r="J78">
+        <v>1.799996748471298</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-72.374725</v>
+      </c>
+      <c r="N78">
+        <v>15.792375</v>
+      </c>
+      <c r="O78">
+        <v>17.9133625</v>
+      </c>
+      <c r="P78">
+        <v>0.34</v>
+      </c>
+      <c r="Q78">
+        <v>204314</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>133</v>
+      </c>
+      <c r="C79">
+        <v>26</v>
+      </c>
+      <c r="D79">
+        <v>-1.71421875</v>
+      </c>
+      <c r="E79">
+        <v>-0.5025000000000001</v>
+      </c>
+      <c r="F79">
+        <v>0.9111330476748469</v>
+      </c>
+      <c r="G79">
+        <v>0.002113713303288937</v>
+      </c>
+      <c r="H79">
+        <v>-2.000033398086668</v>
+      </c>
+      <c r="I79">
+        <v>1.920735466807934e-07</v>
+      </c>
+      <c r="J79">
+        <v>1.868003350317673</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-71.88382499999999</v>
+      </c>
+      <c r="N79">
+        <v>16.405925</v>
+      </c>
+      <c r="O79">
+        <v>17.9294</v>
+      </c>
+      <c r="P79">
+        <v>0.34</v>
+      </c>
+      <c r="Q79">
+        <v>203934</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>133</v>
+      </c>
+      <c r="C80">
+        <v>27</v>
+      </c>
+      <c r="D80">
+        <v>-1.708515625</v>
+      </c>
+      <c r="E80">
+        <v>-0.48625</v>
+      </c>
+      <c r="F80">
+        <v>4.701849809822174</v>
+      </c>
+      <c r="G80">
+        <v>0.1665108940387003</v>
+      </c>
+      <c r="H80">
+        <v>-2.000028464296235</v>
+      </c>
+      <c r="I80">
+        <v>-1.849703939907855e-07</v>
+      </c>
+      <c r="J80">
+        <v>1.936004224391765</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>-71.37091875</v>
+      </c>
+      <c r="N80">
+        <v>17.021075</v>
+      </c>
+      <c r="O80">
+        <v>17.944425</v>
+      </c>
+      <c r="P80">
+        <v>0.34</v>
+      </c>
+      <c r="Q80">
+        <v>204142</v>
+      </c>
+      <c r="R80">
+        <v>0.0008307131433854955</v>
+      </c>
+      <c r="S80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>133</v>
+      </c>
+      <c r="C81">
+        <v>28</v>
+      </c>
+      <c r="D81">
+        <v>-1.710234375</v>
+      </c>
+      <c r="E81">
+        <v>-0.482890625</v>
+      </c>
+      <c r="F81">
+        <v>810.8197777619667</v>
+      </c>
+      <c r="G81">
+        <v>2.185823951021515</v>
+      </c>
+      <c r="H81">
+        <v>-2.000037594124987</v>
+      </c>
+      <c r="I81">
+        <v>-2.639768837895263e-08</v>
+      </c>
+      <c r="J81">
+        <v>2.003999798867788</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>-70.83567499999999</v>
+      </c>
+      <c r="N81">
+        <v>17.638075</v>
+      </c>
+      <c r="O81">
+        <v>17.9583875</v>
+      </c>
+      <c r="P81">
+        <v>0.34</v>
+      </c>
+      <c r="Q81">
+        <v>204292</v>
+      </c>
+      <c r="R81">
+        <v>0.0008306969437365068</v>
+      </c>
+      <c r="S81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>133</v>
+      </c>
+      <c r="C82">
+        <v>29</v>
+      </c>
+      <c r="D82">
+        <v>-1.708515625</v>
+      </c>
+      <c r="E82">
+        <v>-0.488203125</v>
+      </c>
+      <c r="F82">
+        <v>2.249649019630484</v>
+      </c>
+      <c r="G82">
+        <v>0.00628224907805592</v>
+      </c>
+      <c r="H82">
+        <v>-2.000032332879385</v>
+      </c>
+      <c r="I82">
+        <v>-6.40760600340608e-08</v>
+      </c>
+      <c r="J82">
+        <v>2.072000272897836</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>-70.27790625</v>
+      </c>
+      <c r="N82">
+        <v>18.2569625</v>
+      </c>
+      <c r="O82">
+        <v>17.9709875</v>
+      </c>
+      <c r="P82">
+        <v>0.34</v>
+      </c>
+      <c r="Q82">
+        <v>204139</v>
+      </c>
+      <c r="R82">
+        <v>0.2792276884800538</v>
+      </c>
+      <c r="S82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>133</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>-1.712109375</v>
+      </c>
+      <c r="E83">
+        <v>-0.492890625</v>
+      </c>
+      <c r="F83">
+        <v>0.399112489520853</v>
+      </c>
+      <c r="G83">
+        <v>0.001398061160912449</v>
+      </c>
+      <c r="H83">
+        <v>-2.000029273855913</v>
+      </c>
+      <c r="I83">
+        <v>-6.176715608202526e-08</v>
+      </c>
+      <c r="J83">
+        <v>2.140002873422062</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>-69.69735</v>
+      </c>
+      <c r="N83">
+        <v>18.87785</v>
+      </c>
+      <c r="O83">
+        <v>17.982025</v>
+      </c>
+      <c r="P83">
+        <v>0.34</v>
+      </c>
+      <c r="Q83">
+        <v>204194</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>133</v>
+      </c>
+      <c r="C84">
+        <v>31</v>
+      </c>
+      <c r="D84">
+        <v>-1.708046875</v>
+      </c>
+      <c r="E84">
+        <v>-0.485234375</v>
+      </c>
+      <c r="F84">
+        <v>0.1249027670819931</v>
+      </c>
+      <c r="G84">
+        <v>0.0007820217257927606</v>
+      </c>
+      <c r="H84">
+        <v>-2.000031319094141</v>
+      </c>
+      <c r="I84">
+        <v>-9.618394999756408e-08</v>
+      </c>
+      <c r="J84">
+        <v>2.207995715482659</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>-69.0937625</v>
+      </c>
+      <c r="N84">
+        <v>19.5008</v>
+      </c>
+      <c r="O84">
+        <v>17.9912625</v>
+      </c>
+      <c r="P84">
+        <v>0.34</v>
+      </c>
+      <c r="Q84">
+        <v>204237</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>133</v>
+      </c>
+      <c r="C85">
+        <v>32</v>
+      </c>
+      <c r="D85">
+        <v>-1.71140625</v>
+      </c>
+      <c r="E85">
+        <v>-0.481640625</v>
+      </c>
+      <c r="F85">
+        <v>0.05320234929425688</v>
+      </c>
+      <c r="G85">
+        <v>0.0005092384373057297</v>
+      </c>
+      <c r="H85">
+        <v>-2.000027188280961</v>
+      </c>
+      <c r="I85">
+        <v>3.347104669662553e-08</v>
+      </c>
+      <c r="J85">
+        <v>2.275999729685294</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>-68.4668375</v>
+      </c>
+      <c r="N85">
+        <v>20.125925</v>
+      </c>
+      <c r="O85">
+        <v>17.9985375</v>
+      </c>
+      <c r="P85">
+        <v>0.34</v>
+      </c>
+      <c r="Q85">
+        <v>205158</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>133</v>
+      </c>
+      <c r="C86">
+        <v>33</v>
+      </c>
+      <c r="D86">
+        <v>-1.703359375</v>
+      </c>
+      <c r="E86">
+        <v>-0.472421875</v>
+      </c>
+      <c r="F86">
+        <v>0.02728480118516982</v>
+      </c>
+      <c r="G86">
+        <v>0.0003649665088114817</v>
+      </c>
+      <c r="H86">
+        <v>-2.00001981232755</v>
+      </c>
+      <c r="I86">
+        <v>-1.096413568708941e-07</v>
+      </c>
+      <c r="J86">
+        <v>2.343990180273793</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>-67.81622499999999</v>
+      </c>
+      <c r="N86">
+        <v>20.7533375</v>
+      </c>
+      <c r="O86">
+        <v>18.0034</v>
+      </c>
+      <c r="P86">
+        <v>0.34</v>
+      </c>
+      <c r="Q86">
+        <v>204840</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>133</v>
+      </c>
+      <c r="C87">
+        <v>34</v>
+      </c>
+      <c r="D87">
+        <v>-1.70390625</v>
+      </c>
+      <c r="E87">
+        <v>-0.469609375</v>
+      </c>
+      <c r="F87">
+        <v>0.01568195056417748</v>
+      </c>
+      <c r="G87">
+        <v>0.000275642541655478</v>
+      </c>
+      <c r="H87">
+        <v>-2.00001255364893</v>
+      </c>
+      <c r="I87">
+        <v>-7.969317481349774e-08</v>
+      </c>
+      <c r="J87">
+        <v>2.411995465389499</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>-67.14159375</v>
+      </c>
+      <c r="N87">
+        <v>21.383125</v>
+      </c>
+      <c r="O87">
+        <v>18.005675</v>
+      </c>
+      <c r="P87">
+        <v>0.34</v>
+      </c>
+      <c r="Q87">
+        <v>206399</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>133</v>
+      </c>
+      <c r="C88">
+        <v>35</v>
+      </c>
+      <c r="D88">
+        <v>-1.71046875</v>
+      </c>
+      <c r="E88">
+        <v>-0.46546875</v>
+      </c>
+      <c r="F88">
+        <v>0.01027323458732827</v>
+      </c>
+      <c r="G88">
+        <v>0.0002228196138160283</v>
+      </c>
+      <c r="H88">
+        <v>-2.000016951960814</v>
+      </c>
+      <c r="I88">
+        <v>2.571956245620283e-08</v>
+      </c>
+      <c r="J88">
+        <v>2.480001047789037</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>-66.44244375</v>
+      </c>
+      <c r="N88">
+        <v>22.0155</v>
+      </c>
+      <c r="O88">
+        <v>18.0051625</v>
+      </c>
+      <c r="P88">
+        <v>0.34</v>
+      </c>
+      <c r="Q88">
+        <v>206919</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>133</v>
+      </c>
+      <c r="C89">
+        <v>36</v>
+      </c>
+      <c r="D89">
+        <v>-1.705078125</v>
+      </c>
+      <c r="E89">
+        <v>-0.467109375</v>
+      </c>
+      <c r="F89">
+        <v>0.009895135058700013</v>
+      </c>
+      <c r="G89">
+        <v>0.0002185599038019243</v>
+      </c>
+      <c r="H89">
+        <v>-2.00001560993188</v>
+      </c>
+      <c r="I89">
+        <v>2.954713097285812e-07</v>
+      </c>
+      <c r="J89">
+        <v>2.548002443175962</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>-65.71854999999999</v>
+      </c>
+      <c r="N89">
+        <v>22.650375</v>
+      </c>
+      <c r="O89">
+        <v>18.001325</v>
+      </c>
+      <c r="P89">
+        <v>0.34</v>
+      </c>
+      <c r="Q89">
+        <v>207148</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>133</v>
+      </c>
+      <c r="C90">
+        <v>37</v>
+      </c>
+      <c r="D90">
+        <v>-1.7078125</v>
+      </c>
+      <c r="E90">
+        <v>-0.466953125</v>
+      </c>
+      <c r="F90">
+        <v>0.008189111079221531</v>
+      </c>
+      <c r="G90">
+        <v>0.0001992852260654259</v>
+      </c>
+      <c r="H90">
+        <v>-2.000019741734305</v>
+      </c>
+      <c r="I90">
+        <v>5.94738121540205e-08</v>
+      </c>
+      <c r="J90">
+        <v>2.615997794445403</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>-64.96930624999999</v>
+      </c>
+      <c r="N90">
+        <v>23.287975</v>
+      </c>
+      <c r="O90">
+        <v>17.9938875</v>
+      </c>
+      <c r="P90">
+        <v>0.34</v>
+      </c>
+      <c r="Q90">
+        <v>206199</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>133</v>
+      </c>
+      <c r="C91">
+        <v>38</v>
+      </c>
+      <c r="D91">
+        <v>-1.7109375</v>
+      </c>
+      <c r="E91">
+        <v>-0.46203125</v>
+      </c>
+      <c r="F91">
+        <v>0.007384746390548405</v>
+      </c>
+      <c r="G91">
+        <v>0.0001888821911595284</v>
+      </c>
+      <c r="H91">
+        <v>-2.00002053453945</v>
+      </c>
+      <c r="I91">
+        <v>1.149112710912558e-07</v>
+      </c>
+      <c r="J91">
+        <v>2.684004536229961</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>-64.19419375</v>
+      </c>
+      <c r="N91">
+        <v>23.9284375</v>
+      </c>
+      <c r="O91">
+        <v>17.9824625</v>
+      </c>
+      <c r="P91">
+        <v>0.34</v>
+      </c>
+      <c r="Q91">
+        <v>206992</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>133</v>
+      </c>
+      <c r="C92">
+        <v>39</v>
+      </c>
+      <c r="D92">
+        <v>-1.70328125</v>
+      </c>
+      <c r="E92">
+        <v>-0.451328125</v>
+      </c>
+      <c r="F92">
+        <v>0.00943061241590846</v>
+      </c>
+      <c r="G92">
+        <v>0.0002138331704875704</v>
+      </c>
+      <c r="H92">
+        <v>-2.000017317598913</v>
+      </c>
+      <c r="I92">
+        <v>7.022661574049692e-08</v>
+      </c>
+      <c r="J92">
+        <v>2.751999304599337</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>-63.39270625</v>
+      </c>
+      <c r="N92">
+        <v>24.5718</v>
+      </c>
+      <c r="O92">
+        <v>17.9665125</v>
+      </c>
+      <c r="P92">
+        <v>0.34</v>
+      </c>
+      <c r="Q92">
+        <v>206248</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>133</v>
+      </c>
+      <c r="C93">
+        <v>40</v>
+      </c>
+      <c r="D93">
+        <v>-1.71125</v>
+      </c>
+      <c r="E93">
+        <v>-0.44296875</v>
+      </c>
+      <c r="F93">
+        <v>0.008767592432151496</v>
+      </c>
+      <c r="G93">
+        <v>0.0002059792737455396</v>
+      </c>
+      <c r="H93">
+        <v>-2.000016699950775</v>
+      </c>
+      <c r="I93">
+        <v>1.662368057421903e-08</v>
+      </c>
+      <c r="J93">
+        <v>2.819994909577202</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>-62.564125</v>
+      </c>
+      <c r="N93">
+        <v>25.2182625</v>
+      </c>
+      <c r="O93">
+        <v>17.9456</v>
+      </c>
+      <c r="P93">
+        <v>0.34</v>
+      </c>
+      <c r="Q93">
+        <v>206649</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>133</v>
+      </c>
+      <c r="C94">
+        <v>41</v>
+      </c>
+      <c r="D94">
+        <v>-1.711953125</v>
+      </c>
+      <c r="E94">
+        <v>-0.441796875</v>
+      </c>
+      <c r="F94">
+        <v>0.008725166915315628</v>
+      </c>
+      <c r="G94">
+        <v>0.0002056485633494609</v>
+      </c>
+      <c r="H94">
+        <v>-2.000017536928993</v>
+      </c>
+      <c r="I94">
+        <v>-1.223109559043902e-07</v>
+      </c>
+      <c r="J94">
+        <v>2.88799570804893</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>-61.70776875</v>
+      </c>
+      <c r="N94">
+        <v>25.8679625</v>
+      </c>
+      <c r="O94">
+        <v>17.9193125</v>
+      </c>
+      <c r="P94">
+        <v>0.34</v>
+      </c>
+      <c r="Q94">
+        <v>206311</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>133</v>
+      </c>
+      <c r="C95">
+        <v>42</v>
+      </c>
+      <c r="D95">
+        <v>-1.714296875</v>
+      </c>
+      <c r="E95">
+        <v>-0.433515625</v>
+      </c>
+      <c r="F95">
+        <v>0.008192929667695182</v>
+      </c>
+      <c r="G95">
+        <v>0.0001994424630096192</v>
+      </c>
+      <c r="H95">
+        <v>-2.000015454242865</v>
+      </c>
+      <c r="I95">
+        <v>3.734051442651857e-07</v>
+      </c>
+      <c r="J95">
+        <v>2.956003729906073</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>-60.822875</v>
+      </c>
+      <c r="N95">
+        <v>26.521025</v>
+      </c>
+      <c r="O95">
+        <v>17.8870125</v>
+      </c>
+      <c r="P95">
+        <v>0.34</v>
+      </c>
+      <c r="Q95">
+        <v>205970</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>133</v>
+      </c>
+      <c r="C96">
+        <v>43</v>
+      </c>
+      <c r="D96">
+        <v>-1.709453125</v>
+      </c>
+      <c r="E96">
+        <v>-0.511640625</v>
+      </c>
+      <c r="F96">
+        <v>0.007543605802080777</v>
+      </c>
+      <c r="G96">
+        <v>0.0001914410889318518</v>
+      </c>
+      <c r="H96">
+        <v>-2.000014736519895</v>
+      </c>
+      <c r="I96">
+        <v>2.077312104490873e-07</v>
+      </c>
+      <c r="J96">
+        <v>3.023993459654557</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>-59.90864375</v>
+      </c>
+      <c r="N96">
+        <v>27.1775375</v>
+      </c>
+      <c r="O96">
+        <v>17.8481375</v>
+      </c>
+      <c r="P96">
+        <v>0.34</v>
+      </c>
+      <c r="Q96">
+        <v>205830</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>133</v>
+      </c>
+      <c r="C97">
+        <v>44</v>
+      </c>
+      <c r="D97">
+        <v>-1.704453125</v>
+      </c>
+      <c r="E97">
+        <v>-0.49578125</v>
+      </c>
+      <c r="F97">
+        <v>0.007175823258994841</v>
+      </c>
+      <c r="G97">
+        <v>0.0001868858638807723</v>
+      </c>
+      <c r="H97">
+        <v>-2.000010725100482</v>
+      </c>
+      <c r="I97">
+        <v>1.637889480748505e-07</v>
+      </c>
+      <c r="J97">
+        <v>3.091995661668347</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>-58.96405625</v>
+      </c>
+      <c r="N97">
+        <v>27.837725</v>
+      </c>
+      <c r="O97">
+        <v>17.8020375</v>
+      </c>
+      <c r="P97">
+        <v>0.34</v>
+      </c>
+      <c r="Q97">
+        <v>205456</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>133</v>
+      </c>
+      <c r="C98">
+        <v>45</v>
+      </c>
+      <c r="D98">
+        <v>-1.7034375</v>
+      </c>
+      <c r="E98">
+        <v>-0.493046875</v>
+      </c>
+      <c r="F98">
+        <v>0.005469432316794181</v>
+      </c>
+      <c r="G98">
+        <v>0.000163279698632273</v>
+      </c>
+      <c r="H98">
+        <v>-2.000022013190379</v>
+      </c>
+      <c r="I98">
+        <v>4.529215818431343e-08</v>
+      </c>
+      <c r="J98">
+        <v>3.160007760566551</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>-57.9880125</v>
+      </c>
+      <c r="N98">
+        <v>28.501775</v>
+      </c>
+      <c r="O98">
+        <v>17.7479875</v>
+      </c>
+      <c r="P98">
+        <v>0.34</v>
+      </c>
+      <c r="Q98">
+        <v>205153</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>133</v>
+      </c>
+      <c r="C99">
+        <v>46</v>
+      </c>
+      <c r="D99">
+        <v>-1.708984375</v>
+      </c>
+      <c r="E99">
+        <v>-0.511875</v>
+      </c>
+      <c r="F99">
+        <v>0.007068328096018381</v>
+      </c>
+      <c r="G99">
+        <v>0.0001856412402450192</v>
+      </c>
+      <c r="H99">
+        <v>-2.000027971952658</v>
+      </c>
+      <c r="I99">
+        <v>1.598389702389276e-07</v>
+      </c>
+      <c r="J99">
+        <v>3.228007842469109</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>-56.97955</v>
+      </c>
+      <c r="N99">
+        <v>29.169725</v>
+      </c>
+      <c r="O99">
+        <v>17.6852125</v>
+      </c>
+      <c r="P99">
+        <v>0.34</v>
+      </c>
+      <c r="Q99">
+        <v>205101</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>133</v>
+      </c>
+      <c r="C100">
+        <v>47</v>
+      </c>
+      <c r="D100">
+        <v>-1.70625</v>
+      </c>
+      <c r="E100">
+        <v>-0.501796875</v>
+      </c>
+      <c r="F100">
+        <v>0.005228669744921363</v>
+      </c>
+      <c r="G100">
+        <v>0.0001594990110775667</v>
+      </c>
+      <c r="H100">
+        <v>-2.000027537891932</v>
+      </c>
+      <c r="I100">
+        <v>2.909743532636172e-07</v>
+      </c>
+      <c r="J100">
+        <v>3.296010118573453</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>-55.93723125</v>
+      </c>
+      <c r="N100">
+        <v>29.8418</v>
+      </c>
+      <c r="O100">
+        <v>17.6127375</v>
+      </c>
+      <c r="P100">
+        <v>0.34</v>
+      </c>
+      <c r="Q100">
+        <v>205530</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>133</v>
+      </c>
+      <c r="C101">
+        <v>48</v>
+      </c>
+      <c r="D101">
+        <v>-1.707578125</v>
+      </c>
+      <c r="E101">
+        <v>-0.515234375</v>
+      </c>
+      <c r="F101">
+        <v>0.006638099334107784</v>
+      </c>
+      <c r="G101">
+        <v>0.0001798642437585234</v>
+      </c>
+      <c r="H101">
+        <v>-2.000024638952846</v>
+      </c>
+      <c r="I101">
+        <v>-1.426206274415989e-07</v>
+      </c>
+      <c r="J101">
+        <v>3.364002758842395</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>-54.85974375</v>
+      </c>
+      <c r="N101">
+        <v>30.518075</v>
+      </c>
+      <c r="O101">
+        <v>17.5296</v>
+      </c>
+      <c r="P101">
+        <v>0.34</v>
+      </c>
+      <c r="Q101">
+        <v>205189</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>133</v>
+      </c>
+      <c r="C102">
+        <v>49</v>
+      </c>
+      <c r="D102">
+        <v>-1.713671875</v>
+      </c>
+      <c r="E102">
+        <v>-0.544140625</v>
+      </c>
+      <c r="F102">
+        <v>0.006864890805828842</v>
+      </c>
+      <c r="G102">
+        <v>0.0001827418449514049</v>
+      </c>
+      <c r="H102">
+        <v>-2.000025337962986</v>
+      </c>
+      <c r="I102">
+        <v>-8.232752387215065e-08</v>
+      </c>
+      <c r="J102">
+        <v>3.432012154751136</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>-53.74521875</v>
+      </c>
+      <c r="N102">
+        <v>31.1989625</v>
+      </c>
+      <c r="O102">
+        <v>17.434825</v>
+      </c>
+      <c r="P102">
+        <v>0.34</v>
+      </c>
+      <c r="Q102">
+        <v>205569</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>133</v>
+      </c>
+      <c r="C103">
+        <v>50</v>
+      </c>
+      <c r="D103">
+        <v>-1.7053125</v>
+      </c>
+      <c r="E103">
+        <v>-0.540625</v>
+      </c>
+      <c r="F103">
+        <v>0.006329533796151881</v>
+      </c>
+      <c r="G103">
+        <v>0.0001757429019910161</v>
+      </c>
+      <c r="H103">
+        <v>-2.000038927173997</v>
+      </c>
+      <c r="I103">
+        <v>-8.983077878061227e-08</v>
+      </c>
+      <c r="J103">
+        <v>3.50001195061642</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>-52.59194375</v>
+      </c>
+      <c r="N103">
+        <v>31.8845625</v>
+      </c>
+      <c r="O103">
+        <v>17.3271875</v>
+      </c>
+      <c r="P103">
+        <v>0.34</v>
+      </c>
+      <c r="Q103">
+        <v>204935</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>144</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>-0.636328125</v>
+      </c>
+      <c r="E104">
+        <v>-0.058515625</v>
+      </c>
+      <c r="F104">
+        <v>0.007721681061887298</v>
+      </c>
+      <c r="G104">
+        <v>0.0001936752676747155</v>
+      </c>
+      <c r="H104">
+        <v>-1.999997343105118</v>
+      </c>
+      <c r="I104">
+        <v>1.055988990462018e-07</v>
+      </c>
+      <c r="J104">
+        <v>0.09999992492361361</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>-77.78619375</v>
+      </c>
+      <c r="N104">
+        <v>0.7875249999999987</v>
+      </c>
+      <c r="O104">
+        <v>17.5701375</v>
+      </c>
+      <c r="P104">
+        <v>0.34</v>
+      </c>
+      <c r="Q104">
+        <v>205856</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>144</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>-0.646875</v>
+      </c>
+      <c r="E105">
+        <v>-0.0584375</v>
+      </c>
+      <c r="F105">
+        <v>0.007406350002017147</v>
+      </c>
+      <c r="G105">
+        <v>0.0001897795332547904</v>
+      </c>
+      <c r="H105">
+        <v>-1.999992200256402</v>
+      </c>
+      <c r="I105">
+        <v>2.570031107804447e-07</v>
+      </c>
+      <c r="J105">
+        <v>0.1679997152135716</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>-77.8174375</v>
+      </c>
+      <c r="N105">
+        <v>1.382449999999999</v>
+      </c>
+      <c r="O105">
+        <v>17.574875</v>
+      </c>
+      <c r="P105">
+        <v>0.34</v>
+      </c>
+      <c r="Q105">
+        <v>205639</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>144</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>-0.631796875</v>
+      </c>
+      <c r="E106">
+        <v>-0.061015625</v>
+      </c>
+      <c r="F106">
+        <v>0.05678006172323592</v>
+      </c>
+      <c r="G106">
+        <v>0.0005254858529810738</v>
+      </c>
+      <c r="H106">
+        <v>-1.999992353726699</v>
+      </c>
+      <c r="I106">
+        <v>8.26968874390148e-08</v>
+      </c>
+      <c r="J106">
+        <v>0.2360002804373695</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>-77.82820624999999</v>
+      </c>
+      <c r="N106">
+        <v>1.9773125</v>
+      </c>
+      <c r="O106">
+        <v>17.5805625</v>
+      </c>
+      <c r="P106">
+        <v>0.34</v>
+      </c>
+      <c r="Q106">
+        <v>205624</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+      <c r="S106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>144</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>-0.6353125000000001</v>
+      </c>
+      <c r="E107">
+        <v>-0.05953125</v>
+      </c>
+      <c r="F107">
+        <v>0.222061003444896</v>
+      </c>
+      <c r="G107">
+        <v>0.001038821427358325</v>
+      </c>
+      <c r="H107">
+        <v>-1.999997464282401</v>
+      </c>
+      <c r="I107">
+        <v>1.598948067100477e-07</v>
+      </c>
+      <c r="J107">
+        <v>0.3040016184467956</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>-77.81846874999999</v>
+      </c>
+      <c r="N107">
+        <v>2.572174999999998</v>
+      </c>
+      <c r="O107">
+        <v>17.5873</v>
+      </c>
+      <c r="P107">
+        <v>0.34</v>
+      </c>
+      <c r="Q107">
+        <v>205774</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>144</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>-0.64234375</v>
+      </c>
+      <c r="E108">
+        <v>-0.05625</v>
+      </c>
+      <c r="F108">
+        <v>0.1145572996023894</v>
+      </c>
+      <c r="G108">
+        <v>0.0007466264262933988</v>
+      </c>
+      <c r="H108">
+        <v>-1.999992090855742</v>
+      </c>
+      <c r="I108">
+        <v>9.580930630690715e-08</v>
+      </c>
+      <c r="J108">
+        <v>0.3720003600052634</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>-77.78830624999999</v>
+      </c>
+      <c r="N108">
+        <v>3.167087500000001</v>
+      </c>
+      <c r="O108">
+        <v>17.5949</v>
+      </c>
+      <c r="P108">
+        <v>0.34</v>
+      </c>
+      <c r="Q108">
+        <v>205502</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>144</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>-0.643828125</v>
+      </c>
+      <c r="E109">
+        <v>-0.055234375</v>
+      </c>
+      <c r="F109">
+        <v>0.06744199312253317</v>
+      </c>
+      <c r="G109">
+        <v>0.0005730122697148619</v>
+      </c>
+      <c r="H109">
+        <v>-1.999993002364359</v>
+      </c>
+      <c r="I109">
+        <v>2.667158962191334e-08</v>
+      </c>
+      <c r="J109">
+        <v>0.4399988936652653</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>-77.73764999999999</v>
+      </c>
+      <c r="N109">
+        <v>3.762125000000001</v>
+      </c>
+      <c r="O109">
+        <v>17.6034875</v>
+      </c>
+      <c r="P109">
+        <v>0.34</v>
+      </c>
+      <c r="Q109">
+        <v>205401</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>144</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <v>-0.63578125</v>
+      </c>
+      <c r="E110">
+        <v>-0.05734375</v>
+      </c>
+      <c r="F110">
+        <v>0.04611880227829201</v>
+      </c>
+      <c r="G110">
+        <v>0.0004734445134399606</v>
+      </c>
+      <c r="H110">
+        <v>-1.999998434795685</v>
+      </c>
+      <c r="I110">
+        <v>1.035224796086714e-07</v>
+      </c>
+      <c r="J110">
+        <v>0.5080004133343869</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>-77.66646874999999</v>
+      </c>
+      <c r="N110">
+        <v>4.357362500000001</v>
+      </c>
+      <c r="O110">
+        <v>17.6131</v>
+      </c>
+      <c r="P110">
+        <v>0.34</v>
+      </c>
+      <c r="Q110">
+        <v>205750</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>144</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="D111">
+        <v>-0.630234375</v>
+      </c>
+      <c r="E111">
+        <v>-0.058828125</v>
+      </c>
+      <c r="F111">
+        <v>0.03324830430713697</v>
+      </c>
+      <c r="G111">
+        <v>0.0004025868404678125</v>
+      </c>
+      <c r="H111">
+        <v>-1.999981776011007</v>
+      </c>
+      <c r="I111">
+        <v>1.860067230697081e-07</v>
+      </c>
+      <c r="J111">
+        <v>0.5759999908149792</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>-77.57483124999999</v>
+      </c>
+      <c r="N111">
+        <v>4.952849999999998</v>
+      </c>
+      <c r="O111">
+        <v>17.62355</v>
+      </c>
+      <c r="P111">
+        <v>0.34</v>
+      </c>
+      <c r="Q111">
+        <v>205140</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>144</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+      <c r="D112">
+        <v>-0.641796875</v>
+      </c>
+      <c r="E112">
+        <v>-0.055078125</v>
+      </c>
+      <c r="F112">
+        <v>0.02777311515940147</v>
+      </c>
+      <c r="G112">
+        <v>0.0003681181888579311</v>
+      </c>
+      <c r="H112">
+        <v>-1.999986210548527</v>
+      </c>
+      <c r="I112">
+        <v>2.452788063987006e-07</v>
+      </c>
+      <c r="J112">
+        <v>0.6439997472507225</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>-77.46265624999999</v>
+      </c>
+      <c r="N112">
+        <v>5.548662499999999</v>
+      </c>
+      <c r="O112">
+        <v>17.6349375</v>
+      </c>
+      <c r="P112">
+        <v>0.34</v>
+      </c>
+      <c r="Q112">
+        <v>204951</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+      <c r="S112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>144</v>
+      </c>
+      <c r="C113">
+        <v>9</v>
+      </c>
+      <c r="D113">
+        <v>-0.6411718750000001</v>
+      </c>
+      <c r="E113">
+        <v>-0.05609375</v>
+      </c>
+      <c r="F113">
+        <v>0.02585003048887041</v>
+      </c>
+      <c r="G113">
+        <v>0.000354843711286395</v>
+      </c>
+      <c r="H113">
+        <v>-1.999976675257189</v>
+      </c>
+      <c r="I113">
+        <v>1.526979420501182e-07</v>
+      </c>
+      <c r="J113">
+        <v>0.7119998853062026</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>-77.32995625</v>
+      </c>
+      <c r="N113">
+        <v>6.144849999999998</v>
+      </c>
+      <c r="O113">
+        <v>17.6471625</v>
+      </c>
+      <c r="P113">
+        <v>0.34</v>
+      </c>
+      <c r="Q113">
+        <v>205299</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="S113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>144</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>-0.639296875</v>
+      </c>
+      <c r="E114">
+        <v>-0.0584375</v>
+      </c>
+      <c r="F114">
+        <v>0.0208702635032201</v>
+      </c>
+      <c r="G114">
+        <v>0.000318665323803819</v>
+      </c>
+      <c r="H114">
+        <v>-1.999977986700418</v>
+      </c>
+      <c r="I114">
+        <v>1.275975468201103e-09</v>
+      </c>
+      <c r="J114">
+        <v>0.780001283053811</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>-77.17666249999999</v>
+      </c>
+      <c r="N114">
+        <v>6.741499999999998</v>
+      </c>
+      <c r="O114">
+        <v>17.660275</v>
+      </c>
+      <c r="P114">
+        <v>0.34</v>
+      </c>
+      <c r="Q114">
+        <v>205522</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+      <c r="S114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>144</v>
+      </c>
+      <c r="C115">
+        <v>11</v>
+      </c>
+      <c r="D115">
+        <v>-0.633984375</v>
+      </c>
+      <c r="E115">
+        <v>-0.05875</v>
+      </c>
+      <c r="F115">
+        <v>0.01724172948314489</v>
+      </c>
+      <c r="G115">
+        <v>0.0002896721159400083</v>
+      </c>
+      <c r="H115">
+        <v>-1.999971558466282</v>
+      </c>
+      <c r="I115">
+        <v>4.619603622464061e-08</v>
+      </c>
+      <c r="J115">
+        <v>0.8479988484722391</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>-77.00279375</v>
+      </c>
+      <c r="N115">
+        <v>7.338650000000001</v>
+      </c>
+      <c r="O115">
+        <v>17.6741625</v>
+      </c>
+      <c r="P115">
+        <v>0.34</v>
+      </c>
+      <c r="Q115">
+        <v>205479</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="S115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>144</v>
+      </c>
+      <c r="C116">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>-0.63671875</v>
+      </c>
+      <c r="E116">
+        <v>-0.0596875</v>
+      </c>
+      <c r="F116">
+        <v>0.01730929106994808</v>
+      </c>
+      <c r="G116">
+        <v>0.0002905340553283509</v>
+      </c>
+      <c r="H116">
+        <v>-1.999979481689782</v>
+      </c>
+      <c r="I116">
+        <v>1.215700821441084e-07</v>
+      </c>
+      <c r="J116">
+        <v>0.916001352632003</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>-76.80823124999999</v>
+      </c>
+      <c r="N116">
+        <v>7.936425</v>
+      </c>
+      <c r="O116">
+        <v>17.6889125</v>
+      </c>
+      <c r="P116">
+        <v>0.34</v>
+      </c>
+      <c r="Q116">
+        <v>205062</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>144</v>
+      </c>
+      <c r="C117">
+        <v>13</v>
+      </c>
+      <c r="D117">
+        <v>-0.6355468750000001</v>
+      </c>
+      <c r="E117">
+        <v>-0.06078125</v>
+      </c>
+      <c r="F117">
+        <v>0.01919142167040234</v>
+      </c>
+      <c r="G117">
+        <v>0.0003058975773451846</v>
+      </c>
+      <c r="H117">
+        <v>-1.999975183652589</v>
+      </c>
+      <c r="I117">
+        <v>1.693592783097999e-07</v>
+      </c>
+      <c r="J117">
+        <v>0.9840018045396607</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>-76.59303749999999</v>
+      </c>
+      <c r="N117">
+        <v>8.534812500000001</v>
+      </c>
+      <c r="O117">
+        <v>17.7043</v>
+      </c>
+      <c r="P117">
+        <v>0.34</v>
+      </c>
+      <c r="Q117">
+        <v>205095</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
+      </c>
+      <c r="S117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>144</v>
+      </c>
+      <c r="C118">
+        <v>14</v>
+      </c>
+      <c r="D118">
+        <v>-0.6471875</v>
+      </c>
+      <c r="E118">
+        <v>-0.059375</v>
+      </c>
+      <c r="F118">
+        <v>0.01904528511615822</v>
+      </c>
+      <c r="G118">
+        <v>0.0003047723065004162</v>
+      </c>
+      <c r="H118">
+        <v>-1.999980496721544</v>
+      </c>
+      <c r="I118">
+        <v>8.063557706785991e-08</v>
+      </c>
+      <c r="J118">
+        <v>1.051996684458203</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>-76.35714374999999</v>
+      </c>
+      <c r="N118">
+        <v>9.133925</v>
+      </c>
+      <c r="O118">
+        <v>17.720275</v>
+      </c>
+      <c r="P118">
+        <v>0.34</v>
+      </c>
+      <c r="Q118">
+        <v>205039</v>
+      </c>
+      <c r="R118">
+        <v>1</v>
+      </c>
+      <c r="S118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>144</v>
+      </c>
+      <c r="C119">
+        <v>15</v>
+      </c>
+      <c r="D119">
+        <v>-0.632421875</v>
+      </c>
+      <c r="E119">
+        <v>-0.0578125</v>
+      </c>
+      <c r="F119">
+        <v>0.01721862675783664</v>
+      </c>
+      <c r="G119">
+        <v>0.000290212637331893</v>
+      </c>
+      <c r="H119">
+        <v>-1.999982489661118</v>
+      </c>
+      <c r="I119">
+        <v>-3.377788345826091e-08</v>
+      </c>
+      <c r="J119">
+        <v>1.120000397441862</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>-76.1004375</v>
+      </c>
+      <c r="N119">
+        <v>9.733862499999999</v>
+      </c>
+      <c r="O119">
+        <v>17.7368875</v>
+      </c>
+      <c r="P119">
+        <v>0.34</v>
+      </c>
+      <c r="Q119">
+        <v>204440</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>144</v>
+      </c>
+      <c r="C120">
+        <v>16</v>
+      </c>
+      <c r="D120">
+        <v>-0.629375</v>
+      </c>
+      <c r="E120">
+        <v>-0.05578125</v>
+      </c>
+      <c r="F120">
+        <v>0.018175311286878</v>
+      </c>
+      <c r="G120">
+        <v>0.0002981520588693</v>
+      </c>
+      <c r="H120">
+        <v>-1.999976441468817</v>
+      </c>
+      <c r="I120">
+        <v>1.66580106149931e-07</v>
+      </c>
+      <c r="J120">
+        <v>1.188001560003984</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>-75.82296249999999</v>
+      </c>
+      <c r="N120">
+        <v>10.334625</v>
+      </c>
+      <c r="O120">
+        <v>17.7539125</v>
+      </c>
+      <c r="P120">
+        <v>0.34</v>
+      </c>
+      <c r="Q120">
+        <v>204459</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+      <c r="S120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>144</v>
+      </c>
+      <c r="C121">
+        <v>17</v>
+      </c>
+      <c r="D121">
+        <v>-0.6353125000000001</v>
+      </c>
+      <c r="E121">
+        <v>-0.056484375</v>
+      </c>
+      <c r="F121">
+        <v>0.01901898940931382</v>
+      </c>
+      <c r="G121">
+        <v>0.0003048816961535125</v>
+      </c>
+      <c r="H121">
+        <v>-1.999968477636346</v>
+      </c>
+      <c r="I121">
+        <v>-3.70430364006929e-08</v>
+      </c>
+      <c r="J121">
+        <v>1.255994041584688</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>-75.52461249999999</v>
+      </c>
+      <c r="N121">
+        <v>10.9363</v>
+      </c>
+      <c r="O121">
+        <v>17.7713</v>
+      </c>
+      <c r="P121">
+        <v>0.34</v>
+      </c>
+      <c r="Q121">
+        <v>204609</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>144</v>
+      </c>
+      <c r="C122">
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>-0.641328125</v>
+      </c>
+      <c r="E122">
+        <v>-0.05484375</v>
+      </c>
+      <c r="F122">
+        <v>0.02448819518087837</v>
+      </c>
+      <c r="G122">
+        <v>0.0003462848618287867</v>
+      </c>
+      <c r="H122">
+        <v>-1.999968059032414</v>
+      </c>
+      <c r="I122">
+        <v>1.814184246684901e-07</v>
+      </c>
+      <c r="J122">
+        <v>1.324001754881922</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>-75.205225</v>
+      </c>
+      <c r="N122">
+        <v>11.53905</v>
+      </c>
+      <c r="O122">
+        <v>17.7891375</v>
+      </c>
+      <c r="P122">
+        <v>0.34</v>
+      </c>
+      <c r="Q122">
+        <v>204216</v>
+      </c>
+      <c r="R122">
+        <v>1</v>
+      </c>
+      <c r="S122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>144</v>
+      </c>
+      <c r="C123">
+        <v>19</v>
+      </c>
+      <c r="D123">
+        <v>-0.64125</v>
+      </c>
+      <c r="E123">
+        <v>-0.057265625</v>
+      </c>
+      <c r="F123">
+        <v>0.02875038708397531</v>
+      </c>
+      <c r="G123">
+        <v>0.0003753133064762874</v>
+      </c>
+      <c r="H123">
+        <v>-1.99997055394489</v>
+      </c>
+      <c r="I123">
+        <v>2.323867151634408e-07</v>
+      </c>
+      <c r="J123">
+        <v>1.391995754909145</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>-74.86486875</v>
+      </c>
+      <c r="N123">
+        <v>12.1428</v>
+      </c>
+      <c r="O123">
+        <v>17.8070875</v>
+      </c>
+      <c r="P123">
+        <v>0.34</v>
+      </c>
+      <c r="Q123">
+        <v>204106</v>
+      </c>
+      <c r="R123">
+        <v>1</v>
+      </c>
+      <c r="S123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>144</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+      <c r="D124">
+        <v>-0.6372656250000001</v>
+      </c>
+      <c r="E124">
+        <v>-0.0584375</v>
+      </c>
+      <c r="F124">
+        <v>0.03590503253224542</v>
+      </c>
+      <c r="G124">
+        <v>0.0004198816788618049</v>
+      </c>
+      <c r="H124">
+        <v>-1.999960793445805</v>
+      </c>
+      <c r="I124">
+        <v>1.880341194540726e-07</v>
+      </c>
+      <c r="J124">
+        <v>1.45999774004</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>-74.50336249999999</v>
+      </c>
+      <c r="N124">
+        <v>12.7477375</v>
+      </c>
+      <c r="O124">
+        <v>17.825125</v>
+      </c>
+      <c r="P124">
+        <v>0.34</v>
+      </c>
+      <c r="Q124">
+        <v>203658</v>
+      </c>
+      <c r="R124">
+        <v>1</v>
+      </c>
+      <c r="S124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>144</v>
+      </c>
+      <c r="C125">
+        <v>21</v>
+      </c>
+      <c r="D125">
+        <v>-0.63515625</v>
+      </c>
+      <c r="E125">
+        <v>-0.05546875</v>
+      </c>
+      <c r="F125">
+        <v>0.05153475313955075</v>
+      </c>
+      <c r="G125">
+        <v>0.0005029992969964378</v>
+      </c>
+      <c r="H125">
+        <v>-1.999967326146752</v>
+      </c>
+      <c r="I125">
+        <v>2.261231698149291e-08</v>
+      </c>
+      <c r="J125">
+        <v>1.528001542037672</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>-74.12058125</v>
+      </c>
+      <c r="N125">
+        <v>13.3539125</v>
+      </c>
+      <c r="O125">
+        <v>17.84325</v>
+      </c>
+      <c r="P125">
+        <v>0.34</v>
+      </c>
+      <c r="Q125">
+        <v>203688</v>
+      </c>
+      <c r="R125">
+        <v>1</v>
+      </c>
+      <c r="S125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>144</v>
+      </c>
+      <c r="C126">
+        <v>22</v>
+      </c>
+      <c r="D126">
+        <v>-0.63890625</v>
+      </c>
+      <c r="E126">
+        <v>-0.05890625</v>
+      </c>
+      <c r="F126">
+        <v>0.07497238442907597</v>
+      </c>
+      <c r="G126">
+        <v>0.0006064474487371214</v>
+      </c>
+      <c r="H126">
+        <v>-1.999963391308167</v>
+      </c>
+      <c r="I126">
+        <v>-8.579515897275987e-08</v>
+      </c>
+      <c r="J126">
+        <v>1.595999889740711</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>-73.71646874999999</v>
+      </c>
+      <c r="N126">
+        <v>13.9613875</v>
+      </c>
+      <c r="O126">
+        <v>17.8612125</v>
+      </c>
+      <c r="P126">
+        <v>0.34</v>
+      </c>
+      <c r="Q126">
+        <v>203852</v>
+      </c>
+      <c r="R126">
+        <v>1</v>
+      </c>
+      <c r="S126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>144</v>
+      </c>
+      <c r="C127">
+        <v>23</v>
+      </c>
+      <c r="D127">
+        <v>-0.6315625</v>
+      </c>
+      <c r="E127">
+        <v>-0.05765625</v>
+      </c>
+      <c r="F127">
+        <v>0.1270780703856236</v>
+      </c>
+      <c r="G127">
+        <v>0.0007896764726147966</v>
+      </c>
+      <c r="H127">
+        <v>-1.999966640877533</v>
+      </c>
+      <c r="I127">
+        <v>1.879049026212672e-07</v>
+      </c>
+      <c r="J127">
+        <v>1.664001639773572</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>-73.29090624999999</v>
+      </c>
+      <c r="N127">
+        <v>14.5702375</v>
+      </c>
+      <c r="O127">
+        <v>17.8789</v>
+      </c>
+      <c r="P127">
+        <v>0.34</v>
+      </c>
+      <c r="Q127">
+        <v>203785</v>
+      </c>
+      <c r="R127">
+        <v>1</v>
+      </c>
+      <c r="S127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>144</v>
+      </c>
+      <c r="C128">
+        <v>24</v>
+      </c>
+      <c r="D128">
+        <v>-0.6355468750000001</v>
+      </c>
+      <c r="E128">
+        <v>-0.056171875</v>
+      </c>
+      <c r="F128">
+        <v>0.2246786352880694</v>
+      </c>
+      <c r="G128">
+        <v>0.001050965194912504</v>
+      </c>
+      <c r="H128">
+        <v>-1.999967866010447</v>
+      </c>
+      <c r="I128">
+        <v>7.319218758137329e-08</v>
+      </c>
+      <c r="J128">
+        <v>1.732003086317129</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>-72.84373124999999</v>
+      </c>
+      <c r="N128">
+        <v>15.18055</v>
+      </c>
+      <c r="O128">
+        <v>17.8961625</v>
+      </c>
+      <c r="P128">
+        <v>0.34</v>
+      </c>
+      <c r="Q128">
+        <v>203416</v>
+      </c>
+      <c r="R128">
+        <v>1</v>
+      </c>
+      <c r="S128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>144</v>
+      </c>
+      <c r="C129">
+        <v>25</v>
+      </c>
+      <c r="D129">
+        <v>-0.634140625</v>
+      </c>
+      <c r="E129">
+        <v>-0.055859375</v>
+      </c>
+      <c r="F129">
+        <v>0.4869280873681262</v>
+      </c>
+      <c r="G129">
+        <v>0.001548574080115178</v>
+      </c>
+      <c r="H129">
+        <v>-1.999965642398114</v>
+      </c>
+      <c r="I129">
+        <v>5.858804625206226e-08</v>
+      </c>
+      <c r="J129">
+        <v>1.800000986065535</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>-72.3748375</v>
+      </c>
+      <c r="N129">
+        <v>15.792375</v>
+      </c>
+      <c r="O129">
+        <v>17.9128125</v>
+      </c>
+      <c r="P129">
+        <v>0.34</v>
+      </c>
+      <c r="Q129">
+        <v>203049</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+      <c r="S129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>144</v>
+      </c>
+      <c r="C130">
+        <v>26</v>
+      </c>
+      <c r="D130">
+        <v>-0.6322656250000001</v>
+      </c>
+      <c r="E130">
+        <v>-0.061015625</v>
+      </c>
+      <c r="F130">
+        <v>1.334569976745897</v>
+      </c>
+      <c r="G130">
+        <v>0.002563920012976144</v>
+      </c>
+      <c r="H130">
+        <v>-1.999948864454961</v>
+      </c>
+      <c r="I130">
+        <v>1.43085083837563e-08</v>
+      </c>
+      <c r="J130">
+        <v>1.867997842247013</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>-71.884</v>
+      </c>
+      <c r="N130">
+        <v>16.4058625</v>
+      </c>
+      <c r="O130">
+        <v>17.9286875</v>
+      </c>
+      <c r="P130">
+        <v>0.34</v>
+      </c>
+      <c r="Q130">
+        <v>203017</v>
+      </c>
+      <c r="R130">
+        <v>1</v>
+      </c>
+      <c r="S130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>144</v>
+      </c>
+      <c r="C131">
+        <v>27</v>
+      </c>
+      <c r="D131">
+        <v>-0.6365625</v>
+      </c>
+      <c r="E131">
+        <v>-0.05640625</v>
+      </c>
+      <c r="F131">
+        <v>7.024356780760061</v>
+      </c>
+      <c r="G131">
+        <v>0.1818305438086722</v>
+      </c>
+      <c r="H131">
+        <v>-1.999945468949093</v>
+      </c>
+      <c r="I131">
+        <v>1.529307930902556e-07</v>
+      </c>
+      <c r="J131">
+        <v>1.935999463439189</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>-71.37105625</v>
+      </c>
+      <c r="N131">
+        <v>17.0210625</v>
+      </c>
+      <c r="O131">
+        <v>17.9436625</v>
+      </c>
+      <c r="P131">
+        <v>0.34</v>
+      </c>
+      <c r="Q131">
+        <v>204552</v>
+      </c>
+      <c r="R131">
+        <v>0.001038649835776479</v>
+      </c>
+      <c r="S131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>144</v>
+      </c>
+      <c r="C132">
+        <v>28</v>
+      </c>
+      <c r="D132">
+        <v>-0.64078125</v>
+      </c>
+      <c r="E132">
+        <v>-0.052734375</v>
+      </c>
+      <c r="F132">
+        <v>843.6810972430428</v>
+      </c>
+      <c r="G132">
+        <v>1.990284326677158</v>
+      </c>
+      <c r="H132">
+        <v>-1.999947981853643</v>
+      </c>
+      <c r="I132">
+        <v>3.213112668081062e-08</v>
+      </c>
+      <c r="J132">
+        <v>2.004000204236678</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>-70.835775</v>
+      </c>
+      <c r="N132">
+        <v>17.638075</v>
+      </c>
+      <c r="O132">
+        <v>17.9576</v>
+      </c>
+      <c r="P132">
+        <v>0.34</v>
+      </c>
+      <c r="Q132">
+        <v>205050</v>
+      </c>
+      <c r="R132">
+        <v>0.001038695617443713</v>
+      </c>
+      <c r="S132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>144</v>
+      </c>
+      <c r="C133">
+        <v>29</v>
+      </c>
+      <c r="D133">
+        <v>-0.6392187500000001</v>
+      </c>
+      <c r="E133">
+        <v>-0.053671875</v>
+      </c>
+      <c r="F133">
+        <v>3.364799620845344</v>
+      </c>
+      <c r="G133">
+        <v>0.007671530304037612</v>
+      </c>
+      <c r="H133">
+        <v>-1.999948991618554</v>
+      </c>
+      <c r="I133">
+        <v>-9.445002138605847e-08</v>
+      </c>
+      <c r="J133">
+        <v>2.071996900522964</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>-70.27798125</v>
+      </c>
+      <c r="N133">
+        <v>18.2569625</v>
+      </c>
+      <c r="O133">
+        <v>17.9701875</v>
+      </c>
+      <c r="P133">
+        <v>0.34</v>
+      </c>
+      <c r="Q133">
+        <v>204755</v>
+      </c>
+      <c r="R133">
+        <v>0.2792291027250919</v>
+      </c>
+      <c r="S133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>144</v>
+      </c>
+      <c r="C134">
+        <v>30</v>
+      </c>
+      <c r="D134">
+        <v>-0.631171875</v>
+      </c>
+      <c r="E134">
+        <v>-0.055546875</v>
+      </c>
+      <c r="F134">
+        <v>0.6514780733292361</v>
+      </c>
+      <c r="G134">
+        <v>0.001783713996826579</v>
+      </c>
+      <c r="H134">
+        <v>-1.999947687543497</v>
+      </c>
+      <c r="I134">
+        <v>9.518241015474529e-08</v>
+      </c>
+      <c r="J134">
+        <v>2.139997788681398</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>-69.69740625</v>
+      </c>
+      <c r="N134">
+        <v>18.87785</v>
+      </c>
+      <c r="O134">
+        <v>17.9812125</v>
+      </c>
+      <c r="P134">
+        <v>0.34</v>
+      </c>
+      <c r="Q134">
+        <v>204762</v>
+      </c>
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>144</v>
+      </c>
+      <c r="C135">
+        <v>31</v>
+      </c>
+      <c r="D135">
+        <v>-0.6431250000000001</v>
+      </c>
+      <c r="E135">
+        <v>-0.0559375</v>
+      </c>
+      <c r="F135">
+        <v>0.2031359103102066</v>
+      </c>
+      <c r="G135">
+        <v>0.0009965325465744581</v>
+      </c>
+      <c r="H135">
+        <v>-1.999951964434445</v>
+      </c>
+      <c r="I135">
+        <v>-9.467010849873707e-09</v>
+      </c>
+      <c r="J135">
+        <v>2.208005810832082</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>-69.09372499999999</v>
+      </c>
+      <c r="N135">
+        <v>19.5008625</v>
+      </c>
+      <c r="O135">
+        <v>17.990575</v>
+      </c>
+      <c r="P135">
+        <v>0.34</v>
+      </c>
+      <c r="Q135">
+        <v>204552</v>
+      </c>
+      <c r="R135">
+        <v>1</v>
+      </c>
+      <c r="S135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>144</v>
+      </c>
+      <c r="C136">
+        <v>32</v>
+      </c>
+      <c r="D136">
+        <v>-0.6365625</v>
+      </c>
+      <c r="E136">
+        <v>-0.059921875</v>
+      </c>
+      <c r="F136">
+        <v>0.0848556780757139</v>
+      </c>
+      <c r="G136">
+        <v>0.0006439428313273279</v>
+      </c>
+      <c r="H136">
+        <v>-1.999952398439985</v>
+      </c>
+      <c r="I136">
+        <v>1.169451735080975e-07</v>
+      </c>
+      <c r="J136">
+        <v>2.276000419398469</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>-68.4667875</v>
+      </c>
+      <c r="N136">
+        <v>20.125975</v>
+      </c>
+      <c r="O136">
+        <v>17.997825</v>
+      </c>
+      <c r="P136">
+        <v>0.34</v>
+      </c>
+      <c r="Q136">
+        <v>204638</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>144</v>
+      </c>
+      <c r="C137">
+        <v>33</v>
+      </c>
+      <c r="D137">
+        <v>-0.639921875</v>
+      </c>
+      <c r="E137">
+        <v>-0.059375</v>
+      </c>
+      <c r="F137">
+        <v>0.04344017888994927</v>
+      </c>
+      <c r="G137">
+        <v>0.0004611536327600171</v>
+      </c>
+      <c r="H137">
+        <v>-1.99995035665701</v>
+      </c>
+      <c r="I137">
+        <v>1.184408507805105e-07</v>
+      </c>
+      <c r="J137">
+        <v>2.343997834318794</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>-67.81616874999999</v>
+      </c>
+      <c r="N137">
+        <v>20.753375</v>
+      </c>
+      <c r="O137">
+        <v>18.0027625</v>
+      </c>
+      <c r="P137">
+        <v>0.34</v>
+      </c>
+      <c r="Q137">
+        <v>204268</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+      <c r="S137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>144</v>
+      </c>
+      <c r="C138">
+        <v>34</v>
+      </c>
+      <c r="D138">
+        <v>-0.637734375</v>
+      </c>
+      <c r="E138">
+        <v>-0.059921875</v>
+      </c>
+      <c r="F138">
+        <v>0.02686975946366678</v>
+      </c>
+      <c r="G138">
+        <v>0.0003625270826050082</v>
+      </c>
+      <c r="H138">
+        <v>-1.999946639456414</v>
+      </c>
+      <c r="I138">
+        <v>3.6093115835847e-07</v>
+      </c>
+      <c r="J138">
+        <v>2.411999924092912</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>-67.14152499999999</v>
+      </c>
+      <c r="N138">
+        <v>21.3831625</v>
+      </c>
+      <c r="O138">
+        <v>18.0051125</v>
+      </c>
+      <c r="P138">
+        <v>0.34</v>
+      </c>
+      <c r="Q138">
+        <v>204448</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>144</v>
+      </c>
+      <c r="C139">
+        <v>35</v>
+      </c>
+      <c r="D139">
+        <v>-0.6400781250000001</v>
+      </c>
+      <c r="E139">
+        <v>-0.0571875</v>
+      </c>
+      <c r="F139">
+        <v>0.01861051812835647</v>
+      </c>
+      <c r="G139">
+        <v>0.0003019117928250503</v>
+      </c>
+      <c r="H139">
+        <v>-1.999954272104917</v>
+      </c>
+      <c r="I139">
+        <v>2.351909638852585e-07</v>
+      </c>
+      <c r="J139">
+        <v>2.480001991560771</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>-66.44241249999999</v>
+      </c>
+      <c r="N139">
+        <v>22.015475</v>
+      </c>
+      <c r="O139">
+        <v>18.0045625</v>
+      </c>
+      <c r="P139">
+        <v>0.34</v>
+      </c>
+      <c r="Q139">
+        <v>204173</v>
+      </c>
+      <c r="R139">
+        <v>1</v>
+      </c>
+      <c r="S139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>144</v>
+      </c>
+      <c r="C140">
+        <v>36</v>
+      </c>
+      <c r="D140">
+        <v>-0.639765625</v>
+      </c>
+      <c r="E140">
+        <v>-0.0603125</v>
+      </c>
+      <c r="F140">
+        <v>0.0135066941909735</v>
+      </c>
+      <c r="G140">
+        <v>0.0002576623853881874</v>
+      </c>
+      <c r="H140">
+        <v>-1.999961803149561</v>
+      </c>
+      <c r="I140">
+        <v>3.950596443919224e-07</v>
+      </c>
+      <c r="J140">
+        <v>2.548004686490893</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>-65.7184125</v>
+      </c>
+      <c r="N140">
+        <v>22.650425</v>
+      </c>
+      <c r="O140">
+        <v>18.0007625</v>
+      </c>
+      <c r="P140">
+        <v>0.34</v>
+      </c>
+      <c r="Q140">
+        <v>203445</v>
+      </c>
+      <c r="R140">
+        <v>1</v>
+      </c>
+      <c r="S140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>144</v>
+      </c>
+      <c r="C141">
+        <v>37</v>
+      </c>
+      <c r="D141">
+        <v>-0.633828125</v>
+      </c>
+      <c r="E141">
+        <v>-0.05921875</v>
+      </c>
+      <c r="F141">
+        <v>0.01305431805761755</v>
+      </c>
+      <c r="G141">
+        <v>0.0002531919047897299</v>
+      </c>
+      <c r="H141">
+        <v>-1.999956230271444</v>
+      </c>
+      <c r="I141">
+        <v>-4.504103241410247e-09</v>
+      </c>
+      <c r="J141">
+        <v>2.615999511147413</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>-64.9692125</v>
+      </c>
+      <c r="N141">
+        <v>23.2879625</v>
+      </c>
+      <c r="O141">
+        <v>17.9933125</v>
+      </c>
+      <c r="P141">
+        <v>0.34</v>
+      </c>
+      <c r="Q141">
+        <v>203636</v>
+      </c>
+      <c r="R141">
+        <v>1</v>
+      </c>
+      <c r="S141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>144</v>
+      </c>
+      <c r="C142">
+        <v>38</v>
+      </c>
+      <c r="D142">
+        <v>-0.637890625</v>
+      </c>
+      <c r="E142">
+        <v>-0.060625</v>
+      </c>
+      <c r="F142">
+        <v>0.008946921268682587</v>
+      </c>
+      <c r="G142">
+        <v>0.0002096757469190031</v>
+      </c>
+      <c r="H142">
+        <v>-1.999950903295726</v>
+      </c>
+      <c r="I142">
+        <v>1.987530793710417e-07</v>
+      </c>
+      <c r="J142">
+        <v>2.684006008358085</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>-64.19403124999999</v>
+      </c>
+      <c r="N142">
+        <v>23.92845</v>
+      </c>
+      <c r="O142">
+        <v>17.9818</v>
+      </c>
+      <c r="P142">
+        <v>0.34</v>
+      </c>
+      <c r="Q142">
+        <v>203506</v>
+      </c>
+      <c r="R142">
+        <v>1</v>
+      </c>
+      <c r="S142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>144</v>
+      </c>
+      <c r="C143">
+        <v>39</v>
+      </c>
+      <c r="D143">
+        <v>-0.6353125000000001</v>
+      </c>
+      <c r="E143">
+        <v>-0.060078125</v>
+      </c>
+      <c r="F143">
+        <v>0.01109764906202833</v>
+      </c>
+      <c r="G143">
+        <v>0.0002333335454085333</v>
+      </c>
+      <c r="H143">
+        <v>-1.999955470119561</v>
+      </c>
+      <c r="I143">
+        <v>1.176759133953427e-07</v>
+      </c>
+      <c r="J143">
+        <v>2.752003814374693</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>-63.392525</v>
+      </c>
+      <c r="N143">
+        <v>24.5718125</v>
+      </c>
+      <c r="O143">
+        <v>17.9658875</v>
+      </c>
+      <c r="P143">
+        <v>0.34</v>
+      </c>
+      <c r="Q143">
+        <v>203834</v>
+      </c>
+      <c r="R143">
+        <v>1</v>
+      </c>
+      <c r="S143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>144</v>
+      </c>
+      <c r="C144">
+        <v>40</v>
+      </c>
+      <c r="D144">
+        <v>-0.63234375</v>
+      </c>
+      <c r="E144">
+        <v>-0.0559375</v>
+      </c>
+      <c r="F144">
+        <v>0.01038723392769824</v>
+      </c>
+      <c r="G144">
+        <v>0.0002261424874525556</v>
+      </c>
+      <c r="H144">
+        <v>-1.999951935966628</v>
+      </c>
+      <c r="I144">
+        <v>-1.159201856502889e-07</v>
+      </c>
+      <c r="J144">
+        <v>2.820001659226936</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>-62.563875</v>
+      </c>
+      <c r="N144">
+        <v>25.2183125</v>
+      </c>
+      <c r="O144">
+        <v>17.9450125</v>
+      </c>
+      <c r="P144">
+        <v>0.34</v>
+      </c>
+      <c r="Q144">
+        <v>203112</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145">
+        <v>41</v>
+      </c>
+      <c r="D145">
+        <v>-0.63828125</v>
+      </c>
+      <c r="E145">
+        <v>-0.05765625</v>
+      </c>
+      <c r="F145">
+        <v>0.007850975558692248</v>
+      </c>
+      <c r="G145">
+        <v>0.0001968117432154895</v>
+      </c>
+      <c r="H145">
+        <v>-1.999951216947029</v>
+      </c>
+      <c r="I145">
+        <v>1.561413107017368e-08</v>
+      </c>
+      <c r="J145">
+        <v>2.887993831760946</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>-61.70753125</v>
+      </c>
+      <c r="N145">
+        <v>25.867975</v>
+      </c>
+      <c r="O145">
+        <v>17.918675</v>
+      </c>
+      <c r="P145">
+        <v>0.34</v>
+      </c>
+      <c r="Q145">
+        <v>202685</v>
+      </c>
+      <c r="R145">
+        <v>1</v>
+      </c>
+      <c r="S145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>144</v>
+      </c>
+      <c r="C146">
+        <v>42</v>
+      </c>
+      <c r="D146">
+        <v>-0.6409375</v>
+      </c>
+      <c r="E146">
+        <v>-0.056328125</v>
+      </c>
+      <c r="F146">
+        <v>0.007009977315820314</v>
+      </c>
+      <c r="G146">
+        <v>0.0001859508744460723</v>
+      </c>
+      <c r="H146">
+        <v>-1.999960731547682</v>
+      </c>
+      <c r="I146">
+        <v>4.519204684458722e-08</v>
+      </c>
+      <c r="J146">
+        <v>2.956004203323173</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>-60.8225625</v>
+      </c>
+      <c r="N146">
+        <v>26.5210875</v>
+      </c>
+      <c r="O146">
+        <v>17.8864625</v>
+      </c>
+      <c r="P146">
+        <v>0.34</v>
+      </c>
+      <c r="Q146">
+        <v>202731</v>
+      </c>
+      <c r="R146">
+        <v>1</v>
+      </c>
+      <c r="S146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>144</v>
+      </c>
+      <c r="C147">
+        <v>43</v>
+      </c>
+      <c r="D147">
+        <v>-0.6328125</v>
+      </c>
+      <c r="E147">
+        <v>-0.056328125</v>
+      </c>
+      <c r="F147">
+        <v>0.007025722694525638</v>
+      </c>
+      <c r="G147">
+        <v>0.000186144902594835</v>
+      </c>
+      <c r="H147">
+        <v>-1.999955886331618</v>
+      </c>
+      <c r="I147">
+        <v>1.566788338909852e-07</v>
+      </c>
+      <c r="J147">
+        <v>3.023997105125206</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>-59.9083875</v>
+      </c>
+      <c r="N147">
+        <v>27.1775375</v>
+      </c>
+      <c r="O147">
+        <v>17.8475625</v>
+      </c>
+      <c r="P147">
+        <v>0.34</v>
+      </c>
+      <c r="Q147">
+        <v>202763</v>
+      </c>
+      <c r="R147">
+        <v>1</v>
+      </c>
+      <c r="S147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>144</v>
+      </c>
+      <c r="C148">
+        <v>44</v>
+      </c>
+      <c r="D148">
+        <v>-0.64359375</v>
+      </c>
+      <c r="E148">
+        <v>-0.059375</v>
+      </c>
+      <c r="F148">
+        <v>0.01124889111203479</v>
+      </c>
+      <c r="G148">
+        <v>0.0002355975865686535</v>
+      </c>
+      <c r="H148">
+        <v>-1.999952760251841</v>
+      </c>
+      <c r="I148">
+        <v>2.459515303209419e-07</v>
+      </c>
+      <c r="J148">
+        <v>3.092008895509909</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>-58.96370625</v>
+      </c>
+      <c r="N148">
+        <v>27.837775</v>
+      </c>
+      <c r="O148">
+        <v>17.8014625</v>
+      </c>
+      <c r="P148">
+        <v>0.34</v>
+      </c>
+      <c r="Q148">
+        <v>202660</v>
+      </c>
+      <c r="R148">
+        <v>1</v>
+      </c>
+      <c r="S148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>144</v>
+      </c>
+      <c r="C149">
+        <v>45</v>
+      </c>
+      <c r="D149">
+        <v>-0.627421875</v>
+      </c>
+      <c r="E149">
+        <v>-0.058828125</v>
+      </c>
+      <c r="F149">
+        <v>0.01066033855433423</v>
+      </c>
+      <c r="G149">
+        <v>0.0002298584269967808</v>
+      </c>
+      <c r="H149">
+        <v>-1.999956556413918</v>
+      </c>
+      <c r="I149">
+        <v>-9.28758919119703e-08</v>
+      </c>
+      <c r="J149">
+        <v>3.16000797642922</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>-57.9877375</v>
+      </c>
+      <c r="N149">
+        <v>28.5017625</v>
+      </c>
+      <c r="O149">
+        <v>17.74745</v>
+      </c>
+      <c r="P149">
+        <v>0.34</v>
+      </c>
+      <c r="Q149">
+        <v>201767</v>
+      </c>
+      <c r="R149">
+        <v>1</v>
+      </c>
+      <c r="S149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>144</v>
+      </c>
+      <c r="C150">
+        <v>46</v>
+      </c>
+      <c r="D150">
+        <v>-0.635078125</v>
+      </c>
+      <c r="E150">
+        <v>-0.057578125</v>
+      </c>
+      <c r="F150">
+        <v>0.007641884721469695</v>
+      </c>
+      <c r="G150">
+        <v>0.0001944897009049043</v>
+      </c>
+      <c r="H150">
+        <v>-1.999960092313081</v>
+      </c>
+      <c r="I150">
+        <v>2.42015457294779e-07</v>
+      </c>
+      <c r="J150">
+        <v>3.227996412773414</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>-56.97928125</v>
+      </c>
+      <c r="N150">
+        <v>29.16965</v>
+      </c>
+      <c r="O150">
+        <v>17.6845625</v>
+      </c>
+      <c r="P150">
+        <v>0.34</v>
+      </c>
+      <c r="Q150">
+        <v>202026</v>
+      </c>
+      <c r="R150">
+        <v>1</v>
+      </c>
+      <c r="S150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>144</v>
+      </c>
+      <c r="C151">
+        <v>47</v>
+      </c>
+      <c r="D151">
+        <v>-0.6400781250000001</v>
+      </c>
+      <c r="E151">
+        <v>-0.059375</v>
+      </c>
+      <c r="F151">
+        <v>0.008695932495477305</v>
+      </c>
+      <c r="G151">
+        <v>0.0002077123738594081</v>
+      </c>
+      <c r="H151">
+        <v>-1.999962858893883</v>
+      </c>
+      <c r="I151">
+        <v>3.693612227390743e-07</v>
+      </c>
+      <c r="J151">
+        <v>3.295995937156126</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>-55.93691875</v>
+      </c>
+      <c r="N151">
+        <v>29.8417125</v>
+      </c>
+      <c r="O151">
+        <v>17.6120375</v>
+      </c>
+      <c r="P151">
+        <v>0.34</v>
+      </c>
+      <c r="Q151">
+        <v>201554</v>
+      </c>
+      <c r="R151">
+        <v>1</v>
+      </c>
+      <c r="S151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>144</v>
+      </c>
+      <c r="C152">
+        <v>48</v>
+      </c>
+      <c r="D152">
+        <v>-0.64046875</v>
+      </c>
+      <c r="E152">
+        <v>-0.0590625</v>
+      </c>
+      <c r="F152">
+        <v>0.00864125478057708</v>
+      </c>
+      <c r="G152">
+        <v>0.0002069120874577719</v>
+      </c>
+      <c r="H152">
+        <v>-1.999955432728415</v>
+      </c>
+      <c r="I152">
+        <v>6.255009746671968e-07</v>
+      </c>
+      <c r="J152">
+        <v>3.364000913332552</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>-54.859225</v>
+      </c>
+      <c r="N152">
+        <v>30.518125</v>
+      </c>
+      <c r="O152">
+        <v>17.528925</v>
+      </c>
+      <c r="P152">
+        <v>0.34</v>
+      </c>
+      <c r="Q152">
+        <v>201839</v>
+      </c>
+      <c r="R152">
+        <v>1</v>
+      </c>
+      <c r="S152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>144</v>
+      </c>
+      <c r="C153">
+        <v>49</v>
+      </c>
+      <c r="D153">
+        <v>-0.638671875</v>
+      </c>
+      <c r="E153">
+        <v>-0.0565625</v>
+      </c>
+      <c r="F153">
+        <v>0.008934206804101685</v>
+      </c>
+      <c r="G153">
+        <v>0.0002105127614332299</v>
+      </c>
+      <c r="H153">
+        <v>-1.999961785199892</v>
+      </c>
+      <c r="I153">
+        <v>-5.565496383359839e-08</v>
+      </c>
+      <c r="J153">
+        <v>3.432000285275052</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>-53.74475</v>
+      </c>
+      <c r="N153">
+        <v>31.198925</v>
+      </c>
+      <c r="O153">
+        <v>17.4341125</v>
+      </c>
+      <c r="P153">
+        <v>0.34</v>
+      </c>
+      <c r="Q153">
+        <v>201604</v>
+      </c>
+      <c r="R153">
+        <v>1</v>
+      </c>
+      <c r="S153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>144</v>
+      </c>
+      <c r="C154">
+        <v>50</v>
+      </c>
+      <c r="D154">
+        <v>-0.633671875</v>
+      </c>
+      <c r="E154">
+        <v>-0.058671875</v>
+      </c>
+      <c r="F154">
+        <v>0.008238298488047569</v>
+      </c>
+      <c r="G154">
+        <v>0.0002020161532609777</v>
+      </c>
+      <c r="H154">
+        <v>-1.999964966076106</v>
+      </c>
+      <c r="I154">
+        <v>1.017062265413916e-08</v>
+      </c>
+      <c r="J154">
+        <v>3.500003538394396</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>-52.59146875</v>
+      </c>
+      <c r="N154">
+        <v>31.8844625</v>
+      </c>
+      <c r="O154">
+        <v>17.3263875</v>
+      </c>
+      <c r="P154">
+        <v>0.34</v>
+      </c>
+      <c r="Q154">
+        <v>201867</v>
+      </c>
+      <c r="R154">
+        <v>1</v>
+      </c>
+      <c r="S154" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
